--- a/output/part2/January Anomaly table 3 panel A.xlsx
+++ b/output/part2/January Anomaly table 3 panel A.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03377064049724715</v>
+        <v>-0.03372012390522069</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.005966433884185484</v>
+        <v>-0.006138440541541912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02780420661306167</v>
+        <v>0.02758168336367879</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02505509208266777</v>
+        <v>-0.02519111655881219</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0002619806621202169</v>
+        <v>-0.0005177406024215545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02479311142054755</v>
+        <v>0.02467337595639064</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03453450381807369</v>
+        <v>-0.03446087333290502</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006367047047376347</v>
+        <v>-0.006532720647938112</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02816745677069735</v>
+        <v>0.02792815268496691</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.03767506551421</v>
+        <v>-10.09495981353519</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.55231338234795</v>
+        <v>-5.781546095455516</v>
       </c>
       <c r="D3" t="n">
-        <v>7.942654404310669</v>
+        <v>7.936025621485713</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.449689102860997</v>
+        <v>-4.429099174922851</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04306905738272222</v>
+        <v>-0.08454122787632212</v>
       </c>
       <c r="G3" t="n">
-        <v>3.704013757050616</v>
+        <v>3.680017301663123</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.469385251102722</v>
+        <v>-9.516882524984664</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.009355595032957</v>
+        <v>-6.265831319428622</v>
       </c>
       <c r="J3" t="n">
-        <v>7.435295994494288</v>
+        <v>7.424750005146833</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.005252376416171502</v>
+        <v>-0.005412947714460903</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03301597560025502</v>
+        <v>-0.03351999248464614</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02776359918408352</v>
+        <v>-0.02810704477018523</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.003998721707414106</v>
+        <v>-0.004280506676177392</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02648144611547818</v>
+        <v>-0.02670603830060889</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02248272440806409</v>
+        <v>-0.0224255316244315</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.005212101928204411</v>
+        <v>-0.005365810606762258</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03354318607465406</v>
+        <v>-0.03406271948647425</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.02833108414644964</v>
+        <v>-0.02869690887971199</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4.302867262619642</v>
+        <v>-4.603531047428759</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.726704333438633</v>
+        <v>-11.45998897309456</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.968520727963063</v>
+        <v>-9.275228396866458</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6606396333505694</v>
+        <v>-0.7019663392416481</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.575398164933676</v>
+        <v>-4.598949751595313</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.674693398541269</v>
+        <v>-3.640911064391147</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.204838275172185</v>
+        <v>-4.52760017222365</v>
       </c>
       <c r="I5" t="n">
-        <v>-9.11814040999359</v>
+        <v>-10.78691081787917</v>
       </c>
       <c r="J5" t="n">
-        <v>-7.499383074453591</v>
+        <v>-8.764504142981961</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01369268442380629</v>
+        <v>-0.01352198991690735</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01212621275179881</v>
+        <v>-0.01061001734000322</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.438586453803461e-05</v>
+        <v>0.001240003247248354</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.004590911085192877</v>
+        <v>-0.004141491839748364</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02854409873104194</v>
+        <v>-0.02873156868860488</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02127611484321757</v>
+        <v>-0.02208474012119771</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01422690944760385</v>
+        <v>-0.0140894920807957</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01169151155271949</v>
+        <v>-0.009942132906121561</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001106143951268248</v>
+        <v>0.002695076017361483</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.085166698551189</v>
+        <v>-4.022037480956986</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7838787240634855</v>
+        <v>-0.686416326732585</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00395192403452715</v>
+        <v>0.07608760710271194</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6960179168458964</v>
+        <v>-0.623814621286751</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.648184307409116</v>
+        <v>-1.653235586561639</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9605059710209477</v>
+        <v>-0.9887550248348718</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.929799130931939</v>
+        <v>-3.879034108834931</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.670791072475075</v>
+        <v>-0.5706190005398311</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06040499223929646</v>
+        <v>0.147090595979572</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01009533628199497</v>
+        <v>-0.01016918983183096</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005348424362300921</v>
+        <v>0.005034993215807391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01544376064429588</v>
+        <v>0.01520418304763836</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001900375603299068</v>
+        <v>-0.002185614769495758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01339956581748974</v>
+        <v>0.01339949626934344</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01529994142078881</v>
+        <v>0.01558511103883919</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01062608659599232</v>
+        <v>-0.01067920515356826</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005472495272367542</v>
+        <v>0.005141473206290078</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01609858186835986</v>
+        <v>0.01582067835985832</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.902270993878028</v>
+        <v>-9.966312275913634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9442651604983658</v>
+        <v>0.8924528562354752</v>
       </c>
       <c r="D9" t="n">
-        <v>2.765345663039763</v>
+        <v>2.731284565830458</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3105759828939944</v>
+        <v>-0.3550116133561657</v>
       </c>
       <c r="F9" t="n">
-        <v>1.071806418612357</v>
+        <v>1.071803182902505</v>
       </c>
       <c r="G9" t="n">
-        <v>1.613702921441828</v>
+        <v>1.638638943304942</v>
       </c>
       <c r="H9" t="n">
-        <v>-10.85039171929533</v>
+        <v>-10.90712600951937</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9017773434138822</v>
+        <v>0.8505373728468413</v>
       </c>
       <c r="J9" t="n">
-        <v>2.667597483271919</v>
+        <v>2.629659801783758</v>
       </c>
     </row>
     <row r="10">
@@ -759,31 +759,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05884832765001841</v>
+        <v>-0.0532145004622875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05116883732478267</v>
+        <v>0.0537731522854663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1100171649748011</v>
+        <v>0.1069876527477538</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04106672532844547</v>
+        <v>-0.04396168965006293</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04176789216715783</v>
+        <v>0.0497284764518321</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08283461749560331</v>
+        <v>0.09369016610189503</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06037901060504077</v>
+        <v>-0.05438452861601534</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05200735014001468</v>
+        <v>0.05421197899789379</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1123863607450554</v>
+        <v>0.1085965076139091</v>
       </c>
     </row>
     <row r="11">
@@ -793,31 +793,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.52595938657563</v>
+        <v>-22.62905593399388</v>
       </c>
       <c r="C11" t="n">
-        <v>9.54315661944014</v>
+        <v>8.799134703204285</v>
       </c>
       <c r="D11" t="n">
-        <v>16.96992667864436</v>
+        <v>15.13921930857788</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.605548313487762</v>
+        <v>-4.439471655384962</v>
       </c>
       <c r="F11" t="n">
-        <v>2.765355476356028</v>
+        <v>3.369272596812769</v>
       </c>
       <c r="G11" t="n">
-        <v>3.827822315308864</v>
+        <v>4.597942495023601</v>
       </c>
       <c r="H11" t="n">
-        <v>-24.73350294169436</v>
+        <v>-22.32469576036736</v>
       </c>
       <c r="I11" t="n">
-        <v>9.08765229958764</v>
+        <v>8.263148973140053</v>
       </c>
       <c r="J11" t="n">
-        <v>16.38228448720909</v>
+        <v>14.41000712193189</v>
       </c>
     </row>
     <row r="12">
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.007088430814128475</v>
+        <v>-0.006930705056824788</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.002625079040225384</v>
+        <v>-0.002897014952747699</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004463351773903093</v>
+        <v>0.004033690104077087</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003075529811204223</v>
+        <v>0.002759858872271649</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01569494188552631</v>
+        <v>-0.01595367673211617</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01877047169673053</v>
+        <v>-0.01871353560438782</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.007256976592881174</v>
+        <v>-0.007041208638636525</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.001542349215201</v>
+        <v>-0.001800617631689385</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005714627377680173</v>
+        <v>0.005240591006947144</v>
       </c>
     </row>
     <row r="13">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.730939777701577</v>
+        <v>-2.669081877722859</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5216046877866879</v>
+        <v>-0.5727757571020319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7252723422612996</v>
+        <v>0.654766206445882</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2645486342307025</v>
+        <v>0.2327233325039448</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.536504536392793</v>
+        <v>-1.560029857034952</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.224310846733971</v>
+        <v>-1.201551634102255</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.76382999903493</v>
+        <v>-2.688075527755934</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2833259518887246</v>
+        <v>-0.3289811640897506</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8684781026578223</v>
+        <v>0.7956931704466522</v>
       </c>
     </row>
   </sheetData>

--- a/output/part2/January Anomaly table 3 panel A.xlsx
+++ b/output/part2/January Anomaly table 3 panel A.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03372012390522069</v>
+        <v>-0.01330131946021769</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.006138440541541912</v>
+        <v>0.01428036390346111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02758168336367879</v>
+        <v>0.0275816833636788</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02519111655881219</v>
+        <v>-0.004342321557549175</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0005177406024215545</v>
+        <v>0.02033105439884146</v>
       </c>
       <c r="G2" t="n">
         <v>0.02467337595639064</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03446087333290502</v>
+        <v>-0.01403942705125667</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006532720647938112</v>
+        <v>0.01388872563371025</v>
       </c>
       <c r="J2" t="n">
         <v>0.02792815268496691</v>
@@ -521,28 +521,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.09495981353519</v>
+        <v>-4.009104208629022</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.781546095455516</v>
+        <v>13.93003743569203</v>
       </c>
       <c r="D3" t="n">
-        <v>7.936025621485713</v>
+        <v>7.936025621485715</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.429099174922851</v>
+        <v>-0.8037740470794745</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.08454122787632212</v>
+        <v>3.506865952487741</v>
       </c>
       <c r="G3" t="n">
-        <v>3.680017301663123</v>
+        <v>3.680017301663124</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.516882524984664</v>
+        <v>-3.907999438995332</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.265831319428622</v>
+        <v>13.89537830880782</v>
       </c>
       <c r="J3" t="n">
         <v>7.424750005146833</v>
@@ -555,28 +555,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.005412947714460903</v>
+        <v>0.01500585673054212</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03351999248464614</v>
+        <v>-0.01310118803964311</v>
       </c>
       <c r="D4" t="n">
         <v>-0.02810704477018523</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.004280506676177392</v>
+        <v>0.01656828832508563</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02670603830060889</v>
+        <v>-0.005857243299345878</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0224255316244315</v>
+        <v>-0.02242553162443151</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.005365810606762258</v>
+        <v>0.01505563567488611</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03406271948647425</v>
+        <v>-0.01364127320482589</v>
       </c>
       <c r="J4" t="n">
         <v>-0.02869690887971199</v>
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4.603531047428759</v>
+        <v>13.00894487195475</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.45998897309456</v>
+        <v>-4.514778370992482</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.275228396866458</v>
+        <v>-9.275228396866462</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7019663392416481</v>
+        <v>2.995526341235967</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.598949751595313</v>
+        <v>-1.064181411982787</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.640911064391147</v>
+        <v>-3.640911064391148</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.52760017222365</v>
+        <v>12.90820044869856</v>
       </c>
       <c r="I5" t="n">
-        <v>-10.78691081787917</v>
+        <v>-4.360958731392457</v>
       </c>
       <c r="J5" t="n">
-        <v>-8.764504142981961</v>
+        <v>-8.764504142981963</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01352198991690735</v>
+        <v>0.006896814528095672</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01061001734000322</v>
+        <v>0.009172889323242501</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001240003247248354</v>
+        <v>0.001240003247248356</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.004141491839748364</v>
+        <v>0.01670730316151465</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02873156868860488</v>
+        <v>-0.007432411808914531</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02208474012119771</v>
+        <v>-0.0220847401211977</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0140894920807957</v>
+        <v>0.006331954200852663</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.009942132906121561</v>
+        <v>0.009576062335017111</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002695076017361483</v>
+        <v>0.002695076017361486</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.022037480956986</v>
+        <v>2.04457291463395</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.686416326732585</v>
+        <v>0.5908813427644528</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07608760710271194</v>
+        <v>0.0760876071027121</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.623814621286751</v>
+        <v>2.687035110922084</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.653235586561639</v>
+        <v>-0.413847321709759</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9887550248348718</v>
+        <v>-0.9887550248348717</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.879034108834931</v>
+        <v>1.738456209683802</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5706190005398311</v>
+        <v>0.5475980022499595</v>
       </c>
       <c r="J7" t="n">
-        <v>0.147090595979572</v>
+        <v>0.1470905959795722</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01016918983183096</v>
+        <v>0.01024961461317205</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005034993215807391</v>
+        <v>0.02545379766081041</v>
       </c>
       <c r="D8" t="n">
         <v>0.01520418304763836</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.002185614769495758</v>
+        <v>0.01866318023176725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01339949626934344</v>
+        <v>0.03424829127060645</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01558511103883919</v>
+        <v>0.0155851110388392</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01067920515356826</v>
+        <v>0.009742241128080101</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005141473206290078</v>
+        <v>0.02556291948793843</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01582067835985832</v>
+        <v>0.01582067835985834</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.966312275913634</v>
+        <v>10.54788418695543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8924528562354752</v>
+        <v>4.449797867509968</v>
       </c>
       <c r="D9" t="n">
-        <v>2.731284565830458</v>
+        <v>2.731284565830457</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3550116133561657</v>
+        <v>3.175376413411708</v>
       </c>
       <c r="F9" t="n">
-        <v>1.071803182902505</v>
+        <v>2.741445924429356</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638638943304942</v>
+        <v>1.638638943304941</v>
       </c>
       <c r="H9" t="n">
-        <v>-10.90712600951937</v>
+        <v>10.66903223763597</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8505373728468413</v>
+        <v>4.171017813984688</v>
       </c>
       <c r="J9" t="n">
-        <v>2.629659801783758</v>
+        <v>2.62965980178376</v>
       </c>
     </row>
     <row r="10">
@@ -759,28 +759,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0532145004622875</v>
+        <v>-0.03279569601728449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0537731522854663</v>
+        <v>0.07419195673046931</v>
       </c>
       <c r="D10" t="n">
         <v>0.1069876527477538</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04396168965006293</v>
+        <v>-0.02311289464879991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0497284764518321</v>
+        <v>0.0705772714530951</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09369016610189503</v>
+        <v>0.09369016610189501</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.05438452861601534</v>
+        <v>-0.03396308233436696</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05421197899789379</v>
+        <v>0.07463342527954217</v>
       </c>
       <c r="J10" t="n">
         <v>0.1085965076139091</v>
@@ -793,28 +793,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.62905593399388</v>
+        <v>-14.08601835557018</v>
       </c>
       <c r="C11" t="n">
-        <v>8.799134703204285</v>
+        <v>12.07246456371834</v>
       </c>
       <c r="D11" t="n">
-        <v>15.13921930857788</v>
+        <v>15.13921930857787</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.439471655384962</v>
+        <v>-2.453576068638802</v>
       </c>
       <c r="F11" t="n">
-        <v>3.369272596812769</v>
+        <v>4.726774478606946</v>
       </c>
       <c r="G11" t="n">
-        <v>4.597942495023601</v>
+        <v>4.5979424950236</v>
       </c>
       <c r="H11" t="n">
-        <v>-22.32469576036736</v>
+        <v>-14.04338018096555</v>
       </c>
       <c r="I11" t="n">
-        <v>8.263148973140053</v>
+        <v>11.31822225884762</v>
       </c>
       <c r="J11" t="n">
         <v>14.41000712193189</v>
@@ -827,28 +827,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.006930705056824788</v>
+        <v>0.01348809938817823</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.002897014952747699</v>
+        <v>0.01752178949225532</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004033690104077087</v>
+        <v>0.004033690104077092</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002759858872271649</v>
+        <v>0.02360865387353464</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01595367673211617</v>
+        <v>0.004895118269146857</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01871353560438782</v>
+        <v>-0.01871353560438779</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.007041208638636525</v>
+        <v>0.01338023764301184</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.001800617631689385</v>
+        <v>0.01862082864995898</v>
       </c>
       <c r="J12" t="n">
         <v>0.005240591006947144</v>
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.669081877722859</v>
+        <v>5.216580363165895</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5727757571020319</v>
+        <v>3.440945707132877</v>
       </c>
       <c r="D13" t="n">
-        <v>0.654766206445882</v>
+        <v>0.6547662064458828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2327233325039448</v>
+        <v>2.039510500229762</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.560029857034952</v>
+        <v>0.4571376713131949</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.201551634102255</v>
+        <v>-1.201551634102253</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.688075527755934</v>
+        <v>5.137848967666405</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3289811640897506</v>
+        <v>3.381595855031895</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7956931704466522</v>
+        <v>0.7956931704466521</v>
       </c>
     </row>
   </sheetData>
